--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,37 +43,55 @@
     <t>return</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>guess</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>filter</t>
   </si>
   <si>
     <t>grind</t>
@@ -82,78 +100,99 @@
     <t>plastic</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>sent</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>however</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>work</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>hold</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -163,12 +202,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -184,19 +223,22 @@
     <t>salad</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>great</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>positive</t>
@@ -557,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>0.946236559139785</v>
@@ -676,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9595959595959596</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9576271186440678</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>0.8847457627118644</v>
+        <v>0.8885448916408669</v>
       </c>
       <c r="L5">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="M5">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9081081081081082</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>0.8839009287925697</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L6">
-        <v>571</v>
+        <v>255</v>
       </c>
       <c r="M6">
-        <v>571</v>
+        <v>255</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9056603773584906</v>
+        <v>0.925</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K7">
         <v>0.8478260869565217</v>
@@ -876,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K8">
         <v>0.8181818181818182</v>
@@ -926,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8740740740740741</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>0.7662337662337663</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.86</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8493150684931506</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K11">
         <v>0.6027397260273972</v>
@@ -1076,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8490566037735849</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>0.5600000000000001</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8449612403100775</v>
+        <v>0.8740740740740741</v>
       </c>
       <c r="C13">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K13">
-        <v>0.5405405405405406</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8235294117647058</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>0.5238095238095238</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8169014084507042</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>0.5061728395061729</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8040540540540541</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C16">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.3731942215088282</v>
+        <v>0.4052969502407704</v>
       </c>
       <c r="L16">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="M16">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8018867924528302</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,21 +1386,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17">
+        <v>0.1479452054794521</v>
+      </c>
+      <c r="L17">
+        <v>108</v>
+      </c>
+      <c r="M17">
+        <v>108</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1370,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7818181818181819</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1396,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7701149425287356</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1422,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.75</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="C21">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1448,47 +1514,47 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.75</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7345132743362832</v>
+        <v>0.8</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1500,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7307692307692307</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1526,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6590909090909091</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1552,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6538461538461539</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1578,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6504854368932039</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1604,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6363636363636364</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1630,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6153846153846154</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C29">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1656,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1682,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5576923076923077</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1708,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.553072625698324</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="C32">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1734,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1742,13 +1808,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.455</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="C33">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D33">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1760,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1768,13 +1834,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4536082474226804</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1786,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1794,13 +1860,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4342105263157895</v>
+        <v>0.5474860335195531</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1812,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1820,13 +1886,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.373015873015873</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1838,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1846,13 +1912,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3238095238095238</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="C37">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1864,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1872,13 +1938,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2776280323450135</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C38">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1890,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>268</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1898,13 +1964,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1360544217687075</v>
+        <v>0.485</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1916,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>254</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1924,25 +1990,363 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07210884353741497</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C40">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="C42">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.4646464646464646</v>
+      </c>
+      <c r="C43">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>53</v>
       </c>
-      <c r="D40">
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.4482758620689655</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.3692722371967655</v>
+      </c>
+      <c r="C45">
+        <v>137</v>
+      </c>
+      <c r="D45">
+        <v>137</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C46">
+        <v>70</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.2781456953642384</v>
+      </c>
+      <c r="C47">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>682</v>
+      <c r="B48">
+        <v>0.2620689655172414</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="C49">
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.2303370786516854</v>
+      </c>
+      <c r="C50">
+        <v>41</v>
+      </c>
+      <c r="D50">
+        <v>41</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1605351170568562</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C52">
+        <v>105</v>
+      </c>
+      <c r="D52">
+        <v>105</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1003911342894394</v>
+      </c>
+      <c r="C53">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
